--- a/Wyoming/Overlays/WYov_Overlay Schema Mapping to WaDE.xlsx
+++ b/Wyoming/Overlays/WYov_Overlay Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Wyoming\Regulatory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Wyoming\Overlays\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9C5370-19B8-4AAC-8F06-080D224C3CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50889788-7C0C-40B4-B154-8550FD2B6965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1380" windowWidth="38640" windowHeight="21120" tabRatio="645" firstSheet="2" activeTab="4" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-28920" yWindow="2475" windowWidth="29040" windowHeight="15720" tabRatio="645" activeTab="6" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -294,9 +294,6 @@
     <t>nvarchar(200)</t>
   </si>
   <si>
-    <t>WYre_RU + OBJECTID</t>
-  </si>
-  <si>
     <t>TXag_RU12</t>
   </si>
   <si>
@@ -394,9 +391,6 @@
   </si>
   <si>
     <t>RegulatoryOverlayUUID</t>
-  </si>
-  <si>
-    <t>TXre_RO + OBJECTID</t>
   </si>
   <si>
     <t>NMre_ROSCWR15</t>
@@ -537,13 +531,19 @@
     <t>*This file created automatically with python scripts.</t>
   </si>
   <si>
-    <t>WYre_O1</t>
-  </si>
-  <si>
     <t>(blank)</t>
   </si>
   <si>
     <t>Surface and Groundwater</t>
+  </si>
+  <si>
+    <t>WYov_O1</t>
+  </si>
+  <si>
+    <t>WYov_RU + OBJECTID</t>
+  </si>
+  <si>
+    <t>TXov_RO + OBJECTID</t>
   </si>
 </sst>
 </file>
@@ -1278,9 +1278,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1318,7 +1318,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1424,7 +1424,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1566,7 +1566,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1878,7 +1878,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2332,7 +2332,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2438,7 +2438,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>83</v>
+        <v>165</v>
       </c>
       <c r="G3" s="58" t="s">
         <v>28</v>
@@ -2450,20 +2450,20 @@
         <v>28</v>
       </c>
       <c r="J3" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" s="80" t="s">
         <v>84</v>
-      </c>
-      <c r="K3" s="80" t="s">
-        <v>85</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
     </row>
     <row r="4" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>86</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>87</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>28</v>
@@ -2490,17 +2490,17 @@
         <v>4326</v>
       </c>
       <c r="K4" s="80" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>28</v>
@@ -2512,7 +2512,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="61" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G5" s="46" t="s">
         <v>28</v>
@@ -2524,20 +2524,20 @@
         <v>28</v>
       </c>
       <c r="J5" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="80" t="s">
         <v>90</v>
-      </c>
-      <c r="K5" s="80" t="s">
-        <v>91</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>93</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>28</v>
@@ -2552,29 +2552,29 @@
         <v>28</v>
       </c>
       <c r="G6" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="62" t="s">
         <v>94</v>
-      </c>
-      <c r="H6" s="62" t="s">
-        <v>95</v>
       </c>
       <c r="I6" s="82" t="s">
         <v>28</v>
       </c>
       <c r="J6" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="80" t="s">
         <v>96</v>
-      </c>
-      <c r="K6" s="80" t="s">
-        <v>97</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>28</v>
@@ -2589,10 +2589,10 @@
         <v>28</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H7" s="62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I7" s="82" t="s">
         <v>28</v>
@@ -2601,17 +2601,17 @@
         <v>48001</v>
       </c>
       <c r="K7" s="80" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
     </row>
     <row r="8" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>101</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>102</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>28</v>
@@ -2623,7 +2623,7 @@
         <v>28</v>
       </c>
       <c r="F8" s="61" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G8" s="46" t="s">
         <v>28</v>
@@ -2636,17 +2636,17 @@
       </c>
       <c r="J8" s="83"/>
       <c r="K8" s="80" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>104</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>105</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>28</v>
@@ -2670,17 +2670,17 @@
         <v>28</v>
       </c>
       <c r="J9" s="79" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="80" t="s">
         <v>106</v>
-      </c>
-      <c r="K9" s="80" t="s">
-        <v>107</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>31</v>
@@ -2707,20 +2707,20 @@
         <v>28</v>
       </c>
       <c r="J10" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" s="80" t="s">
         <v>109</v>
-      </c>
-      <c r="K10" s="80" t="s">
-        <v>110</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
     <row r="11" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>28</v>
@@ -2744,10 +2744,10 @@
         <v>28</v>
       </c>
       <c r="J11" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" s="80" t="s">
         <v>112</v>
-      </c>
-      <c r="K11" s="80" t="s">
-        <v>113</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -2818,9 +2818,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840F4EBE-1122-49FE-9814-7C21AEF7536A}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>27</v>
@@ -2896,15 +2896,15 @@
       <c r="I2" s="33"/>
       <c r="J2" s="112"/>
       <c r="K2" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>28</v>
@@ -2916,7 +2916,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="G3" s="125" t="s">
         <v>28</v>
@@ -2928,18 +2928,18 @@
         <v>28</v>
       </c>
       <c r="J3" s="110" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>28</v>
@@ -2963,18 +2963,18 @@
         <v>28</v>
       </c>
       <c r="J4" s="110" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="72" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>28</v>
@@ -2986,7 +2986,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="124" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G5" s="61" t="s">
         <v>28</v>
@@ -2998,18 +2998,18 @@
         <v>28</v>
       </c>
       <c r="J5" s="110" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>28</v>
@@ -3024,27 +3024,27 @@
         <v>28</v>
       </c>
       <c r="G6" s="121" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="62" t="s">
         <v>94</v>
-      </c>
-      <c r="H6" s="62" t="s">
-        <v>95</v>
       </c>
       <c r="I6" s="31" t="s">
         <v>28</v>
       </c>
       <c r="J6" s="110" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>28</v>
@@ -3059,27 +3059,27 @@
         <v>28</v>
       </c>
       <c r="G7" s="121" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I7" s="31" t="s">
         <v>28</v>
       </c>
       <c r="J7" s="110" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K7" s="38" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>28</v>
@@ -3091,7 +3091,7 @@
         <v>28</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G8" s="31" t="s">
         <v>28</v>
@@ -3103,18 +3103,18 @@
         <v>28</v>
       </c>
       <c r="J8" s="110" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K8" s="38" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>28</v>
@@ -3126,7 +3126,7 @@
         <v>28</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G9" s="61" t="s">
         <v>28</v>
@@ -3139,15 +3139,15 @@
       </c>
       <c r="J9" s="110"/>
       <c r="K9" s="48" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>28</v>
@@ -3159,7 +3159,7 @@
         <v>28</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G10" s="61" t="s">
         <v>28</v>
@@ -3171,15 +3171,15 @@
         <v>28</v>
       </c>
       <c r="J10" s="110" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K10" s="48" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>31</v>
@@ -3209,12 +3209,12 @@
         <v>39842</v>
       </c>
       <c r="K11" s="48" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>31</v>
@@ -3229,7 +3229,7 @@
         <v>28</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G12" s="61" t="s">
         <v>28</v>
@@ -3242,15 +3242,15 @@
       </c>
       <c r="J12" s="110"/>
       <c r="K12" s="48" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>28</v>
@@ -3262,7 +3262,7 @@
         <v>76</v>
       </c>
       <c r="F13" s="53" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G13" s="61" t="s">
         <v>28</v>
@@ -3274,18 +3274,18 @@
         <v>28</v>
       </c>
       <c r="J13" s="110" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>28</v>
@@ -3297,7 +3297,7 @@
         <v>76</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G14" s="61" t="s">
         <v>28</v>
@@ -3309,10 +3309,10 @@
         <v>28</v>
       </c>
       <c r="J14" s="110" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -3413,7 +3413,7 @@
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="114" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B2" s="115" t="s">
         <v>27</v>
@@ -3433,12 +3433,12 @@
       <c r="I2" s="33"/>
       <c r="J2" s="33"/>
       <c r="K2" s="48" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>27</v>
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="K3" s="48" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -3492,7 +3492,7 @@
         <v>28</v>
       </c>
       <c r="J4" s="87" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K4" s="48" t="s">
         <v>46</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="5" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>27</v>
@@ -3515,7 +3515,7 @@
         <v>76</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G5" s="46"/>
       <c r="H5" s="47"/>
@@ -3523,10 +3523,10 @@
         <v>28</v>
       </c>
       <c r="J5" s="87" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K5" s="48" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="24" x14ac:dyDescent="0.3">
@@ -3546,7 +3546,7 @@
         <v>76</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G6" s="46"/>
       <c r="H6" s="47"/>
@@ -3554,10 +3554,10 @@
         <v>28</v>
       </c>
       <c r="J6" s="87" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K6" s="48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -3642,9 +3642,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0292DBD0-9449-426F-89D5-E70E5E92E32E}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="95" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B2" s="96" t="s">
         <v>27</v>
@@ -3713,12 +3713,12 @@
       <c r="H2" s="99"/>
       <c r="I2" s="99"/>
       <c r="J2" s="100" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="95" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" s="96" t="s">
         <v>27</v>
@@ -3739,12 +3739,12 @@
         <v>10</v>
       </c>
       <c r="J3" s="100" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="95" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B4" s="96" t="s">
         <v>27</v>
@@ -3765,7 +3765,7 @@
         <v>10755</v>
       </c>
       <c r="J4" s="100" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3773,7 +3773,7 @@
     </row>
     <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="E7" s="76" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
